--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/12.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/12.xlsx
@@ -1173,10 +1173,10 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>177</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>435.4</v>
       </c>
     </row>
